--- a/testdata/Runtimedata.xlsx
+++ b/testdata/Runtimedata.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Hard region</t>
   </si>
   <si>
+    <t>9S</t>
+  </si>
+  <si>
     <t>Soft region</t>
   </si>
   <si>
-    <t>DZ</t>
+    <t>ZY</t>
   </si>
   <si>
     <t>Retail</t>
   </si>
   <si>
-    <t>CP</t>
+    <t>R3</t>
   </si>
   <si>
     <t>Network</t>
@@ -37,40 +40,79 @@
     <t>Revenue type</t>
   </si>
   <si>
+    <t>7M</t>
+  </si>
+  <si>
     <t>Commodity code</t>
   </si>
   <si>
+    <t>BQ</t>
+  </si>
+  <si>
     <t>Salesperson</t>
   </si>
   <si>
+    <t>3XW</t>
+  </si>
+  <si>
     <t>Sales Office</t>
   </si>
   <si>
-    <t>JI</t>
-  </si>
-  <si>
-    <t>7S</t>
-  </si>
-  <si>
-    <t>3XW</t>
-  </si>
-  <si>
     <t>OI</t>
   </si>
   <si>
-    <t>7M</t>
-  </si>
-  <si>
-    <t>BQ</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>9S</t>
-  </si>
-  <si>
-    <t>ZY</t>
+    <t>Standard Cust</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Agency Cust</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Rep Cust</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
+    <t>3W</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>8O</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>8U0</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>5U</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>QU</t>
+  </si>
+  <si>
+    <t>GI</t>
   </si>
 </sst>
 </file>
@@ -1005,76 +1047,100 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="14.2857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
